--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H2">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I2">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J2">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N2">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O2">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P2">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q2">
-        <v>269.5026492003736</v>
+        <v>403.3222726290738</v>
       </c>
       <c r="R2">
-        <v>269.5026492003736</v>
+        <v>3629.900453661664</v>
       </c>
       <c r="S2">
-        <v>0.05003923630646631</v>
+        <v>0.05983461071660117</v>
       </c>
       <c r="T2">
-        <v>0.05003923630646631</v>
+        <v>0.05983461071660116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H3">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I3">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J3">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N3">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P3">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q3">
-        <v>41.85928957600028</v>
+        <v>51.09510220028355</v>
       </c>
       <c r="R3">
-        <v>41.85928957600028</v>
+        <v>459.855919802552</v>
       </c>
       <c r="S3">
-        <v>0.007772119824903659</v>
+        <v>0.007580180310276604</v>
       </c>
       <c r="T3">
-        <v>0.007772119824903659</v>
+        <v>0.007580180310276604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H4">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I4">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J4">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N4">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P4">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q4">
-        <v>87.59563887747935</v>
+        <v>126.6456523378915</v>
       </c>
       <c r="R4">
-        <v>87.59563887747935</v>
+        <v>1139.810871041024</v>
       </c>
       <c r="S4">
-        <v>0.01626410310329521</v>
+        <v>0.01878843252863665</v>
       </c>
       <c r="T4">
-        <v>0.01626410310329521</v>
+        <v>0.01878843252863665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H5">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I5">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J5">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N5">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P5">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q5">
-        <v>114.4225465720954</v>
+        <v>142.49571574056</v>
       </c>
       <c r="R5">
-        <v>114.4225465720954</v>
+        <v>1282.46144166504</v>
       </c>
       <c r="S5">
-        <v>0.02124512268690822</v>
+        <v>0.02113985826902546</v>
       </c>
       <c r="T5">
-        <v>0.02124512268690822</v>
+        <v>0.02113985826902545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H6">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I6">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J6">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N6">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P6">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q6">
-        <v>194.8066049291724</v>
+        <v>254.9736535631538</v>
       </c>
       <c r="R6">
-        <v>194.8066049291724</v>
+        <v>2294.762882068384</v>
       </c>
       <c r="S6">
-        <v>0.03617023345423118</v>
+        <v>0.03782644882092008</v>
       </c>
       <c r="T6">
-        <v>0.03617023345423118</v>
+        <v>0.03782644882092007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.32607640174055</v>
+        <v>8.936685333333333</v>
       </c>
       <c r="H7">
-        <v>7.32607640174055</v>
+        <v>26.810056</v>
       </c>
       <c r="I7">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="J7">
-        <v>0.1695086214259264</v>
+        <v>0.1887330597209498</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N7">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P7">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q7">
-        <v>204.7573105341297</v>
+        <v>293.6451217788978</v>
       </c>
       <c r="R7">
-        <v>204.7573105341297</v>
+        <v>2642.80609601008</v>
       </c>
       <c r="S7">
-        <v>0.03801780605012181</v>
+        <v>0.04356352907548983</v>
       </c>
       <c r="T7">
-        <v>0.03801780605012181</v>
+        <v>0.04356352907548981</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H8">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I8">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J8">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N8">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O8">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P8">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q8">
-        <v>429.5744833925825</v>
+        <v>530.3620844355369</v>
       </c>
       <c r="R8">
-        <v>429.5744833925825</v>
+        <v>4773.258759919832</v>
       </c>
       <c r="S8">
-        <v>0.07976017730990018</v>
+        <v>0.07868151851417973</v>
       </c>
       <c r="T8">
-        <v>0.07976017730990018</v>
+        <v>0.0786815185141797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H9">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I9">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J9">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N9">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P9">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q9">
-        <v>66.72172888891181</v>
+        <v>67.18921008439177</v>
       </c>
       <c r="R9">
-        <v>66.72172888891181</v>
+        <v>604.702890759526</v>
       </c>
       <c r="S9">
-        <v>0.0123883916115642</v>
+        <v>0.009967811109337961</v>
       </c>
       <c r="T9">
-        <v>0.0123883916115642</v>
+        <v>0.009967811109337959</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H10">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I10">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J10">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N10">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P10">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q10">
-        <v>139.623307711011</v>
+        <v>166.5369277049458</v>
       </c>
       <c r="R10">
-        <v>139.623307711011</v>
+        <v>1498.832349344512</v>
       </c>
       <c r="S10">
-        <v>0.02592421153992891</v>
+        <v>0.0247064764715547</v>
       </c>
       <c r="T10">
-        <v>0.02592421153992891</v>
+        <v>0.0247064764715547</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H11">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I11">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J11">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N11">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P11">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q11">
-        <v>182.3841304640631</v>
+        <v>187.37949761778</v>
       </c>
       <c r="R11">
-        <v>182.3841304640631</v>
+        <v>1686.41547856002</v>
       </c>
       <c r="S11">
-        <v>0.03386372130262526</v>
+        <v>0.02779856223448235</v>
       </c>
       <c r="T11">
-        <v>0.03386372130262526</v>
+        <v>0.02779856223448234</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H12">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I12">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J12">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N12">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P12">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q12">
-        <v>310.5125197181035</v>
+        <v>335.2861162325769</v>
       </c>
       <c r="R12">
-        <v>310.5125197181035</v>
+        <v>3017.575046093192</v>
       </c>
       <c r="S12">
-        <v>0.05765364235339369</v>
+        <v>0.04974115144369334</v>
       </c>
       <c r="T12">
-        <v>0.05765364235339369</v>
+        <v>0.04974115144369333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.6774194795853</v>
+        <v>11.75159266666667</v>
       </c>
       <c r="H13">
-        <v>11.6774194795853</v>
+        <v>35.254778</v>
       </c>
       <c r="I13">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="J13">
-        <v>0.270188729853607</v>
+        <v>0.2481808363892573</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N13">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P13">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q13">
-        <v>326.3734740809792</v>
+        <v>386.1384541344489</v>
       </c>
       <c r="R13">
-        <v>326.3734740809792</v>
+        <v>3475.24608721004</v>
       </c>
       <c r="S13">
-        <v>0.06059858573619481</v>
+        <v>0.05728531661600928</v>
       </c>
       <c r="T13">
-        <v>0.06059858573619481</v>
+        <v>0.05728531661600926</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H14">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I14">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J14">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N14">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O14">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P14">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q14">
-        <v>77.88291934957121</v>
+        <v>129.7515579594578</v>
       </c>
       <c r="R14">
-        <v>77.88291934957121</v>
+        <v>1167.76402163512</v>
       </c>
       <c r="S14">
-        <v>0.0144607179823049</v>
+        <v>0.01924920711610863</v>
       </c>
       <c r="T14">
-        <v>0.0144607179823049</v>
+        <v>0.01924920711610862</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H15">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I15">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J15">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N15">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P15">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q15">
-        <v>12.09681494319596</v>
+        <v>16.43764692529556</v>
       </c>
       <c r="R15">
-        <v>12.09681494319596</v>
+        <v>147.93882232766</v>
       </c>
       <c r="S15">
-        <v>0.002246046127168594</v>
+        <v>0.002438596307763382</v>
       </c>
       <c r="T15">
-        <v>0.002246046127168594</v>
+        <v>0.002438596307763382</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H16">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I16">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J16">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N16">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P16">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q16">
-        <v>25.31405200769148</v>
+        <v>40.74278019043555</v>
       </c>
       <c r="R16">
-        <v>25.31405200769148</v>
+        <v>366.68502171392</v>
       </c>
       <c r="S16">
-        <v>0.004700123854238149</v>
+        <v>0.00604436838143272</v>
       </c>
       <c r="T16">
-        <v>0.004700123854238149</v>
+        <v>0.006044368381432719</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H17">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I17">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J17">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N17">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P17">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q17">
-        <v>33.0666952361621</v>
+        <v>45.84185494980001</v>
       </c>
       <c r="R17">
-        <v>33.0666952361621</v>
+        <v>412.5766945482001</v>
       </c>
       <c r="S17">
-        <v>0.006139576667263147</v>
+        <v>0.006800838266551148</v>
       </c>
       <c r="T17">
-        <v>0.006139576667263147</v>
+        <v>0.006800838266551147</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H18">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I18">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J18">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N18">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P18">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q18">
-        <v>56.29669001577103</v>
+        <v>82.02678362585779</v>
       </c>
       <c r="R18">
-        <v>56.29669001577103</v>
+        <v>738.2410526327201</v>
       </c>
       <c r="S18">
-        <v>0.01045274836195244</v>
+        <v>0.01216902958171588</v>
       </c>
       <c r="T18">
-        <v>0.01045274836195244</v>
+        <v>0.01216902958171588</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.11714511615556</v>
+        <v>2.874993333333334</v>
       </c>
       <c r="H19">
-        <v>2.11714511615556</v>
+        <v>8.624980000000001</v>
       </c>
       <c r="I19">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805504</v>
       </c>
       <c r="J19">
-        <v>0.04898588689477759</v>
+        <v>0.06071672753805503</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N19">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O19">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P19">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q19">
-        <v>59.17232038304812</v>
+        <v>94.46766177737778</v>
       </c>
       <c r="R19">
-        <v>59.17232038304812</v>
+        <v>850.2089559963999</v>
       </c>
       <c r="S19">
-        <v>0.01098667390185036</v>
+        <v>0.01401468788448328</v>
       </c>
       <c r="T19">
-        <v>0.01098667390185036</v>
+        <v>0.01401468788448328</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H20">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I20">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J20">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N20">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O20">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P20">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q20">
-        <v>56.18904730407164</v>
+        <v>72.24288643441956</v>
       </c>
       <c r="R20">
-        <v>56.18904730407164</v>
+        <v>650.1859779097761</v>
       </c>
       <c r="S20">
-        <v>0.01043276206829865</v>
+        <v>0.01071754594327237</v>
       </c>
       <c r="T20">
-        <v>0.01043276206829865</v>
+        <v>0.01071754594327236</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H21">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I21">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J21">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N21">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P21">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q21">
-        <v>8.727311620421178</v>
+        <v>9.152129490763111</v>
       </c>
       <c r="R21">
-        <v>8.727311620421178</v>
+        <v>82.36916541686799</v>
       </c>
       <c r="S21">
-        <v>0.00162042195054541</v>
+        <v>0.001357758156369817</v>
       </c>
       <c r="T21">
-        <v>0.00162042195054541</v>
+        <v>0.001357758156369817</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H22">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I22">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J22">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N22">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O22">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P22">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q22">
-        <v>18.26295775243994</v>
+        <v>22.68470674733511</v>
       </c>
       <c r="R22">
-        <v>18.26295775243994</v>
+        <v>204.162360726016</v>
       </c>
       <c r="S22">
-        <v>0.003390929407710201</v>
+        <v>0.003365374762467824</v>
       </c>
       <c r="T22">
-        <v>0.003390929407710201</v>
+        <v>0.003365374762467823</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H23">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I23">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J23">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N23">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O23">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P23">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q23">
-        <v>23.85614353353412</v>
+        <v>25.52376228204</v>
       </c>
       <c r="R23">
-        <v>23.85614353353412</v>
+        <v>229.71386053836</v>
       </c>
       <c r="S23">
-        <v>0.004429430312382387</v>
+        <v>0.003786560980661403</v>
       </c>
       <c r="T23">
-        <v>0.004429430312382387</v>
+        <v>0.003786560980661401</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H24">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I24">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J24">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N24">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O24">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P24">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q24">
-        <v>40.61554709012371</v>
+        <v>45.67075499713956</v>
       </c>
       <c r="R24">
-        <v>40.61554709012371</v>
+        <v>411.036794974256</v>
       </c>
       <c r="S24">
-        <v>0.00754119102201498</v>
+        <v>0.006775454845510867</v>
       </c>
       <c r="T24">
-        <v>0.00754119102201498</v>
+        <v>0.006775454845510865</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.527425629069</v>
+        <v>1.600734666666667</v>
       </c>
       <c r="H25">
-        <v>1.527425629069</v>
+        <v>4.802204</v>
       </c>
       <c r="I25">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="J25">
-        <v>0.03534112920970925</v>
+        <v>0.03380577251775169</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N25">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O25">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P25">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q25">
-        <v>42.69018594656824</v>
+        <v>52.59756929963555</v>
       </c>
       <c r="R25">
-        <v>42.69018594656824</v>
+        <v>473.3781236967199</v>
       </c>
       <c r="S25">
-        <v>0.007926394448757626</v>
+        <v>0.007803077829469418</v>
       </c>
       <c r="T25">
-        <v>0.007926394448757626</v>
+        <v>0.007803077829469414</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H26">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I26">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J26">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N26">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O26">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P26">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q26">
-        <v>209.6241990421769</v>
+        <v>259.7376471049112</v>
       </c>
       <c r="R26">
-        <v>209.6241990421769</v>
+        <v>2337.6388239442</v>
       </c>
       <c r="S26">
-        <v>0.03892145350907623</v>
+        <v>0.03853320795219575</v>
       </c>
       <c r="T26">
-        <v>0.03892145350907623</v>
+        <v>0.03853320795219575</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H27">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I27">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J27">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N27">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O27">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P27">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q27">
-        <v>32.55893801370262</v>
+        <v>32.90500556187222</v>
       </c>
       <c r="R27">
-        <v>32.55893801370262</v>
+        <v>296.14505005685</v>
       </c>
       <c r="S27">
-        <v>0.006045300103688166</v>
+        <v>0.004881600476929114</v>
       </c>
       <c r="T27">
-        <v>0.006045300103688166</v>
+        <v>0.004881600476929113</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H28">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I28">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J28">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N28">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O28">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P28">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q28">
-        <v>68.13352556555844</v>
+        <v>81.55920460302222</v>
       </c>
       <c r="R28">
-        <v>68.13352556555844</v>
+        <v>734.0328414272</v>
       </c>
       <c r="S28">
-        <v>0.01265052345972604</v>
+        <v>0.01209966220304809</v>
       </c>
       <c r="T28">
-        <v>0.01265052345972604</v>
+        <v>0.01209966220304809</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H29">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I29">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J29">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N29">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O29">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P29">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q29">
-        <v>88.99999591361504</v>
+        <v>91.76657090550002</v>
       </c>
       <c r="R29">
-        <v>88.99999591361504</v>
+        <v>825.8991381495001</v>
       </c>
       <c r="S29">
-        <v>0.01652485361464768</v>
+        <v>0.01361396932318129</v>
       </c>
       <c r="T29">
-        <v>0.01652485361464768</v>
+        <v>0.01361396932318129</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H30">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I30">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J30">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N30">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O30">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P30">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q30">
-        <v>151.5242193261043</v>
+        <v>164.2018339789111</v>
       </c>
       <c r="R30">
-        <v>151.5242193261043</v>
+        <v>1477.8165058102</v>
       </c>
       <c r="S30">
-        <v>0.02813388380228677</v>
+        <v>0.02436005517631283</v>
       </c>
       <c r="T30">
-        <v>0.02813388380228677</v>
+        <v>0.02436005517631282</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.69835919013492</v>
+        <v>5.755183333333334</v>
       </c>
       <c r="H31">
-        <v>5.69835919013492</v>
+        <v>17.26555</v>
       </c>
       <c r="I31">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="J31">
-        <v>0.1318469747981392</v>
+        <v>0.1215432030155045</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N31">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O31">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P31">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q31">
-        <v>159.2640641793281</v>
+        <v>189.1060776721111</v>
       </c>
       <c r="R31">
-        <v>159.2640641793281</v>
+        <v>1701.954699049</v>
       </c>
       <c r="S31">
-        <v>0.02957096030871434</v>
+        <v>0.02805470788383745</v>
       </c>
       <c r="T31">
-        <v>0.02957096030871434</v>
+        <v>0.02805470788383744</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>14.8730655585187</v>
+        <v>16.43173766666667</v>
       </c>
       <c r="H32">
-        <v>14.8730655585187</v>
+        <v>49.295213</v>
       </c>
       <c r="I32">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184817</v>
       </c>
       <c r="J32">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184816</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>36.7867647594208</v>
+        <v>45.13108133333333</v>
       </c>
       <c r="N32">
-        <v>36.7867647594208</v>
+        <v>135.393244</v>
       </c>
       <c r="O32">
-        <v>0.2952017182697281</v>
+        <v>0.3170330137447531</v>
       </c>
       <c r="P32">
-        <v>0.2952017182697281</v>
+        <v>0.317033013744753</v>
       </c>
       <c r="Q32">
-        <v>547.131963952671</v>
+        <v>741.5820890823303</v>
       </c>
       <c r="R32">
-        <v>547.131963952671</v>
+        <v>6674.238801740972</v>
       </c>
       <c r="S32">
-        <v>0.1015873710936818</v>
+        <v>0.1100169235023954</v>
       </c>
       <c r="T32">
-        <v>0.1015873710936818</v>
+        <v>0.1100169235023954</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>14.8730655585187</v>
+        <v>16.43173766666667</v>
       </c>
       <c r="H33">
-        <v>14.8730655585187</v>
+        <v>49.295213</v>
       </c>
       <c r="I33">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184817</v>
       </c>
       <c r="J33">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184816</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>5.71373915320556</v>
+        <v>5.717455666666666</v>
       </c>
       <c r="N33">
-        <v>5.71373915320556</v>
+        <v>17.152367</v>
       </c>
       <c r="O33">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="P33">
-        <v>0.04585088215291751</v>
+        <v>0.04016350035062346</v>
       </c>
       <c r="Q33">
-        <v>84.98081700990141</v>
+        <v>93.94773163546344</v>
       </c>
       <c r="R33">
-        <v>84.98081700990141</v>
+        <v>845.5295847191709</v>
       </c>
       <c r="S33">
-        <v>0.01577860253504748</v>
+        <v>0.01393755398994658</v>
       </c>
       <c r="T33">
-        <v>0.01577860253504748</v>
+        <v>0.01393755398994658</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>14.8730655585187</v>
+        <v>16.43173766666667</v>
       </c>
       <c r="H34">
-        <v>14.8730655585187</v>
+        <v>49.295213</v>
       </c>
       <c r="I34">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184817</v>
       </c>
       <c r="J34">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184816</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>11.9566919690693</v>
+        <v>14.17143466666666</v>
       </c>
       <c r="N34">
-        <v>11.9566919690693</v>
+        <v>42.514304</v>
       </c>
       <c r="O34">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="P34">
-        <v>0.09594853032535849</v>
+        <v>0.09955029901182223</v>
       </c>
       <c r="Q34">
-        <v>177.8326635189817</v>
+        <v>232.8612968029724</v>
       </c>
       <c r="R34">
-        <v>177.8326635189817</v>
+        <v>2095.751671226752</v>
       </c>
       <c r="S34">
-        <v>0.03301863896045999</v>
+        <v>0.03454598466468225</v>
       </c>
       <c r="T34">
-        <v>0.03301863896045999</v>
+        <v>0.03454598466468225</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>14.8730655585187</v>
+        <v>16.43173766666667</v>
       </c>
       <c r="H35">
-        <v>14.8730655585187</v>
+        <v>49.295213</v>
       </c>
       <c r="I35">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184817</v>
       </c>
       <c r="J35">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184816</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.6185303425051</v>
+        <v>15.94503</v>
       </c>
       <c r="N35">
-        <v>15.6185303425051</v>
+        <v>47.83509</v>
       </c>
       <c r="O35">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="P35">
-        <v>0.1253335819039277</v>
+        <v>0.1120093019224172</v>
       </c>
       <c r="Q35">
-        <v>232.2954257117919</v>
+        <v>262.00455004713</v>
       </c>
       <c r="R35">
-        <v>232.2954257117919</v>
+        <v>2358.04095042417</v>
       </c>
       <c r="S35">
-        <v>0.04313087732010105</v>
+        <v>0.03886951284851554</v>
       </c>
       <c r="T35">
-        <v>0.04313087732010105</v>
+        <v>0.03886951284851553</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>14.8730655585187</v>
+        <v>16.43173766666667</v>
       </c>
       <c r="H36">
-        <v>14.8730655585187</v>
+        <v>49.295213</v>
       </c>
       <c r="I36">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184817</v>
       </c>
       <c r="J36">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184816</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.5908508520181</v>
+        <v>28.53112133333333</v>
       </c>
       <c r="N36">
-        <v>26.5908508520181</v>
+        <v>85.59336400000001</v>
       </c>
       <c r="O36">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="P36">
-        <v>0.2133828542168707</v>
+        <v>0.2004230147958612</v>
       </c>
       <c r="Q36">
-        <v>395.487467978858</v>
+        <v>468.8159010851703</v>
       </c>
       <c r="R36">
-        <v>395.487467978858</v>
+        <v>4219.343109766533</v>
       </c>
       <c r="S36">
-        <v>0.07343115522299166</v>
+        <v>0.06955087492770826</v>
       </c>
       <c r="T36">
-        <v>0.07343115522299166</v>
+        <v>0.06955087492770823</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>14.8730655585187</v>
+        <v>16.43173766666667</v>
       </c>
       <c r="H37">
-        <v>14.8730655585187</v>
+        <v>49.295213</v>
       </c>
       <c r="I37">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184817</v>
       </c>
       <c r="J37">
-        <v>0.3441286578178406</v>
+        <v>0.3470204008184816</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.9491093602959</v>
+        <v>32.85839333333333</v>
       </c>
       <c r="N37">
-        <v>27.9491093602959</v>
+        <v>98.57517999999999</v>
       </c>
       <c r="O37">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="P37">
-        <v>0.2242824331311975</v>
+        <v>0.2308208701745229</v>
       </c>
       <c r="Q37">
-        <v>415.6889358178896</v>
+        <v>539.9204994014822</v>
       </c>
       <c r="R37">
-        <v>415.6889358178896</v>
+        <v>4859.284494613339</v>
       </c>
       <c r="S37">
-        <v>0.07718201268555859</v>
+        <v>0.08009955088523366</v>
       </c>
       <c r="T37">
-        <v>0.07718201268555859</v>
+        <v>0.08009955088523363</v>
       </c>
     </row>
   </sheetData>
